--- a/biology/Médecine/Catherine_Alix-Panabières/Catherine_Alix-Panabières.xlsx
+++ b/biology/Médecine/Catherine_Alix-Panabières/Catherine_Alix-Panabières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Catherine_Alix-Panabi%C3%A8res</t>
+          <t>Catherine_Alix-Panabières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catherine Alix-Panabières, née le 8 octobre 1970 à Strasbourg (France), est une professeure de cancérologie et praticienne hospitalière.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Catherine_Alix-Panabi%C3%A8res</t>
+          <t>Catherine_Alix-Panabières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,21 +523,93 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catherine Alix-Panabieres est titulaire d’un doctorat de virologie[1]. Chercheuse au Centre Hospitalier Universitaire de Montpellier (CHUM), elle dirige le Laboratoire des Cellules Circulantes Rares Humaines (LCCRH)[2]. Elle est professeure à l’Université de Montpellier et possède une habilité à diriger les recherches.
-Elle est la co-inventrice du terme biopsie liquide avec le Professeur Klaus Pantel (University Medical Center Hamburg-Eppendorf (en)), officiellement reconnu par le président de la American Society of Clinical Oncology (ASCO)[3],[4]. Ce terme fait référence à une analyse non-invasive des biomarqueurs circulants présents au sein de fluides biologiques tel que le sang afin d’effectuer un suivi en temps réel du cancer[5],[6]. Elle ambitionne d'implémenter cette méthode en routine clinique afin d’offrir à chaque patient atteint de cancer un suivi personnalisé[7],[8].
-Elle reçoit le prix Gallet et Breton de l’Académie Nationale de Médecine en 2012 pour son travail sur la biopsie liquide[9]. En 2017 l’American Association for Cancer Research (en) (AACR) lui remet un Award à Washington pour l’article scientifique le plus cité de 2015[10]. Cet article décrit la mise en place et la caractérisation de la première lignée de cellules tumorales circulantes (CTCs) colique[11]. Cette découverte représente une avancée scientifique majeure pour la caractérisation de cellules tumorales initiatrices de métastases à l’origine des progression tumorales chez les patients. Le prestigieux journal Nature reconnait, dans son édition de décembre 2020, que la biopsie liquide consiste en une découverte clé pour la compréhension du cancer lors des 20 dernières années et identifie Catherine Alix-Panabières comme un de ses principaux investigateurs[12].
-En 2022, elle reçoit le prix Alexandr Savchuk lors des 15e Biennales Monégasque de Cancérologie pour son importante contribution lors des 23 dernières années en biopsie liquide[13].
-La biopsie liquide, sous son impulsion, est exposée à la grande exposition "CANCER" à la Cité des Sciences et de l'Industrie à Paris en 2022[14],[15].
-Son implication en tant que responsable du groupe de travail "Éducation et Dissémination" dans la société européenne de biopsie liquide (ELBS), qui comprend 75 institutions universitaires et industrielles a travers l’Europe, à pour vocation la promotion de l’utilisation de la biopsie liquide en pratique clinique au niveau européen de manière standardisée[13].
-Au niveau national, elle est reconnue comme experte dans son domaine et est souvent appelée afin de guider les institutions. Elle est reçue au sénat afin d’exposer l’importance de développer la biopsie liquide en France. Un rapport soumis en 2018 à la ministre de la recherche et de l’enseignement supérieure Sylvie Retailleau par le président de l’Institut National du Cancer (INCa) concernant les avancées scientifiques en termes d’amélioration de connaissances, d’applications cliniques ou de santé a requis son expertise[16]. Elle est également appelée à présenter les objectifs et problématiques de la biopsie liquide auprès de l’Académie Nationale de Médecine (ANM) qui conseille le gouvernement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catherine Alix-Panabieres est titulaire d’un doctorat de virologie. Chercheuse au Centre Hospitalier Universitaire de Montpellier (CHUM), elle dirige le Laboratoire des Cellules Circulantes Rares Humaines (LCCRH). Elle est professeure à l’Université de Montpellier et possède une habilité à diriger les recherches.
+Elle est la co-inventrice du terme biopsie liquide avec le Professeur Klaus Pantel (University Medical Center Hamburg-Eppendorf (en)), officiellement reconnu par le président de la American Society of Clinical Oncology (ASCO),. Ce terme fait référence à une analyse non-invasive des biomarqueurs circulants présents au sein de fluides biologiques tel que le sang afin d’effectuer un suivi en temps réel du cancer,. Elle ambitionne d'implémenter cette méthode en routine clinique afin d’offrir à chaque patient atteint de cancer un suivi personnalisé,.
+Elle reçoit le prix Gallet et Breton de l’Académie Nationale de Médecine en 2012 pour son travail sur la biopsie liquide. En 2017 l’American Association for Cancer Research (en) (AACR) lui remet un Award à Washington pour l’article scientifique le plus cité de 2015. Cet article décrit la mise en place et la caractérisation de la première lignée de cellules tumorales circulantes (CTCs) colique. Cette découverte représente une avancée scientifique majeure pour la caractérisation de cellules tumorales initiatrices de métastases à l’origine des progression tumorales chez les patients. Le prestigieux journal Nature reconnait, dans son édition de décembre 2020, que la biopsie liquide consiste en une découverte clé pour la compréhension du cancer lors des 20 dernières années et identifie Catherine Alix-Panabières comme un de ses principaux investigateurs.
+En 2022, elle reçoit le prix Alexandr Savchuk lors des 15e Biennales Monégasque de Cancérologie pour son importante contribution lors des 23 dernières années en biopsie liquide.
+La biopsie liquide, sous son impulsion, est exposée à la grande exposition "CANCER" à la Cité des Sciences et de l'Industrie à Paris en 2022,.
+Son implication en tant que responsable du groupe de travail "Éducation et Dissémination" dans la société européenne de biopsie liquide (ELBS), qui comprend 75 institutions universitaires et industrielles a travers l’Europe, à pour vocation la promotion de l’utilisation de la biopsie liquide en pratique clinique au niveau européen de manière standardisée.
+Au niveau national, elle est reconnue comme experte dans son domaine et est souvent appelée afin de guider les institutions. Elle est reçue au sénat afin d’exposer l’importance de développer la biopsie liquide en France. Un rapport soumis en 2018 à la ministre de la recherche et de l’enseignement supérieure Sylvie Retailleau par le président de l’Institut National du Cancer (INCa) concernant les avancées scientifiques en termes d’amélioration de connaissances, d’applications cliniques ou de santé a requis son expertise. Elle est également appelée à présenter les objectifs et problématiques de la biopsie liquide auprès de l’Académie Nationale de Médecine (ANM) qui conseille le gouvernement.
 En partenariat avec l’Institut Curie ainsi que l'Institut régional du Cancer de Montpellier (ICM), elle dépose auprès de la Haute Autorité de Santé (HAS) une demande de remboursement par la sécurité sociale pour un test de biopsie liquide pour le cancer du sein métastatique.
-Principaux travaux
-Son laboratoire participe à de nombreux essais cliniques translationnelles pour l’étude des CTCs dans les cancers solides. La validité clinique des CTCs ayant été démontrée dans le cancer du sein métastatique lors d’une étude européenne, son implémentation en pratique clinique nécessite plus d'études interventionnelles[17]. Son groupe à participé à la première étude interventionnelle internationale permettant de démontrer l’utilité clinique de la détection des CTCs par biopsie liquide. L’étude en question est le STIC « CTC METABREAST »[18]. Cette étude nationale est une évaluation médico-économique de l’utilisation des CTCs en aide au choix du traitement de cancers du sein hormono-dépendants métastatiques. Le coût pour l’état et la qualité de vie des patientes sont également évalués précisément. Concernant la stratégie d’évaluation, un prélèvement de sang pour l’énumération des CTCs a été réalisé à l’inclusion (850 patientes analysées en tout) afin d’évaluer l’utilisation de l’information pronostique apportée par les CTCs sur le choix du traitement de 1re ligne (bras CTCs), en comparaison avec un bras n’utilisant pas l’information apportée par les CTCs (bras standard). Le type de chimiothérapie ou d’hormonothérapie est resté à la discrétion de l’investigateur dans les 2 bras[19].
-Elle coordonne aujourd’hui un projet national de développement d’un test diagnostic précoce du cancer du pancréas assisté par intelligence artificielle[20].
-Brevet
-Elle dépose en 2002 un brevet pour la détection de CTCs vivantes par la technique EPISPOT. Un nouveau brevet est déposé en 2016 en collaboration avec l’ESPCI Paris offrant ainsi une optimisation technologique[21]. Cette technologie, appelé EPIDROP (Epispot-in-a-DROP), permet d’avoir un nombre total de CTCs ainsi que la sous-population de CTCs fonctionnelles[22],[23],[24]. Elle ambitionne d’aboutir à test que l’on pourrait qualifier d’oncogramme. Il permettrait de définir un traitement personnalisé au patient dans un délai très court par une décision rapide donnée par le clinicien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Catherine_Alix-Panabières</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catherine_Alix-Panabi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Principaux travaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son laboratoire participe à de nombreux essais cliniques translationnelles pour l’étude des CTCs dans les cancers solides. La validité clinique des CTCs ayant été démontrée dans le cancer du sein métastatique lors d’une étude européenne, son implémentation en pratique clinique nécessite plus d'études interventionnelles. Son groupe à participé à la première étude interventionnelle internationale permettant de démontrer l’utilité clinique de la détection des CTCs par biopsie liquide. L’étude en question est le STIC « CTC METABREAST ». Cette étude nationale est une évaluation médico-économique de l’utilisation des CTCs en aide au choix du traitement de cancers du sein hormono-dépendants métastatiques. Le coût pour l’état et la qualité de vie des patientes sont également évalués précisément. Concernant la stratégie d’évaluation, un prélèvement de sang pour l’énumération des CTCs a été réalisé à l’inclusion (850 patientes analysées en tout) afin d’évaluer l’utilisation de l’information pronostique apportée par les CTCs sur le choix du traitement de 1re ligne (bras CTCs), en comparaison avec un bras n’utilisant pas l’information apportée par les CTCs (bras standard). Le type de chimiothérapie ou d’hormonothérapie est resté à la discrétion de l’investigateur dans les 2 bras.
+Elle coordonne aujourd’hui un projet national de développement d’un test diagnostic précoce du cancer du pancréas assisté par intelligence artificielle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catherine_Alix-Panabières</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catherine_Alix-Panabi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brevet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle dépose en 2002 un brevet pour la détection de CTCs vivantes par la technique EPISPOT. Un nouveau brevet est déposé en 2016 en collaboration avec l’ESPCI Paris offrant ainsi une optimisation technologique. Cette technologie, appelé EPIDROP (Epispot-in-a-DROP), permet d’avoir un nombre total de CTCs ainsi que la sous-population de CTCs fonctionnelles. Elle ambitionne d’aboutir à test que l’on pourrait qualifier d’oncogramme. Il permettrait de définir un traitement personnalisé au patient dans un délai très court par une décision rapide donnée par le clinicien.
 </t>
         </is>
       </c>
